--- a/Data/Lab-linked/MESAlteckWater.xlsx
+++ b/Data/Lab-linked/MESAlteckWater.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>AO-W14-1</t>
   </si>
@@ -376,16 +376,18 @@
   </si>
   <si>
     <t>Conc.Solids.mug/gMES</t>
+  </si>
+  <si>
+    <t>Conc.Solids.ug/gMES.SD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -465,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,9 +500,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +816,7 @@
     <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
@@ -827,18 +826,21 @@
       <c r="D1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>119</v>
       </c>
+      <c r="H1" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -853,12 +855,16 @@
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="12">
-        <v>0.2527337626495606</v>
+      <c r="G2">
+        <v>0.64472898635091991</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2.3237547724546531E-2</v>
       </c>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -875,12 +881,16 @@
       <c r="F3" s="1">
         <v>9.9999999999766942E-4</v>
       </c>
-      <c r="G3" s="12">
-        <v>4.9348776446048584E-2</v>
+      <c r="G3">
+        <v>0.12588973583175658</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2.706368523342741E-2</v>
       </c>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -897,12 +907,16 @@
       <c r="F4" s="1">
         <v>-1.799999999995805E-3</v>
       </c>
-      <c r="G4" s="12">
-        <v>0.17082856698847937</v>
+      <c r="G4">
+        <v>0.43578716068489631</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.12323706386666053</v>
       </c>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -919,12 +933,16 @@
       <c r="F5" s="1">
         <v>-9.9999999999766942E-4</v>
       </c>
-      <c r="G5" s="12">
-        <v>3.1106247058982593E-2</v>
+      <c r="G5">
+        <v>7.9352671068833133E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.6837191235846185E-3</v>
       </c>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -941,12 +959,16 @@
       <c r="F6" s="1">
         <v>-1.300000000000523E-3</v>
       </c>
-      <c r="G6" s="12">
-        <v>1.9895056871566709E-2</v>
+      <c r="G6">
+        <v>5.0752696100935482E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.0272052248050498E-3</v>
       </c>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -963,12 +985,16 @@
       <c r="F7" s="1">
         <v>5.8000000000006935E-3</v>
       </c>
-      <c r="G7" s="12">
-        <v>3.2055748905580127E-2</v>
+      <c r="G7">
+        <v>8.1774869657092172E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.3430893305855383E-3</v>
       </c>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -985,12 +1011,16 @@
       <c r="F8" s="1">
         <v>5.9999999999860165E-4</v>
       </c>
-      <c r="G8" s="12">
-        <v>6.5491053235749441E-2</v>
+      <c r="G8">
+        <v>0.16706901335650368</v>
+      </c>
+      <c r="H8" s="5">
+        <v>9.4075035351021876E-3</v>
       </c>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -1007,12 +1037,16 @@
       <c r="F9" s="1">
         <v>1.5999999999962711E-3</v>
       </c>
-      <c r="G9" s="12">
-        <v>1.2244803002224811E-2</v>
+      <c r="G9">
+        <v>3.1236742352614311E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5.4625968673753967E-4</v>
       </c>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -1029,12 +1063,16 @@
       <c r="F10" s="1">
         <v>2.0000000000024443E-3</v>
       </c>
-      <c r="G10" s="12">
-        <v>0.24626148524783634</v>
+      <c r="G10">
+        <v>0.62821807461182733</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1.6743348106071164E-2</v>
       </c>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1053,12 +1091,16 @@
       <c r="F11" s="1">
         <v>3.9999999999977831E-3</v>
       </c>
-      <c r="G11" s="12">
-        <v>7.8774535406803924E-3</v>
+      <c r="G11">
+        <v>2.0095544746633654E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8.391099896434104E-4</v>
       </c>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -1077,12 +1119,16 @@
       <c r="F12" s="1">
         <v>7.0000000000050022E-3</v>
       </c>
-      <c r="G12" s="12">
-        <v>8.7509355412234494E-3</v>
+      <c r="G12">
+        <v>2.2323815156182269E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3.4796658924448454E-4</v>
       </c>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -1101,12 +1147,16 @@
       <c r="F13" s="1">
         <v>9.0000000000145519E-4</v>
       </c>
-      <c r="G13" s="12">
-        <v>1.2843845454889716E-2</v>
+      <c r="G13">
+        <v>3.2764911874718659E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.1933177833548063E-3</v>
       </c>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -1125,12 +1175,16 @@
       <c r="F14" s="1">
         <v>2.9299999999999216E-2</v>
       </c>
-      <c r="G14" s="12">
-        <v>1.2730180586325874E-2</v>
+      <c r="G14">
+        <v>3.2474950475321104E-2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4.4026228971006361E-3</v>
       </c>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -1149,12 +1203,16 @@
       <c r="F15" s="1">
         <v>0.1909999999999954</v>
       </c>
-      <c r="G15" s="12">
-        <v>0.11812361107115539</v>
+      <c r="G15">
+        <v>0.30133574252845763</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1.0844021589581899E-2</v>
       </c>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -1173,12 +1231,16 @@
       <c r="F16" s="1">
         <v>1.850000000000307E-2</v>
       </c>
-      <c r="G16" s="12">
-        <v>2.2568805540654348E-2</v>
+      <c r="G16">
+        <v>5.7573483522077411E-2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2.5619963853165794E-3</v>
       </c>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1197,12 +1259,16 @@
       <c r="F17" s="1">
         <v>6.599999999998829E-3</v>
       </c>
-      <c r="G17" s="12">
-        <v>9.8182542200292641E-3</v>
+      <c r="G17">
+        <v>2.5046566887829757E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1.3192901446604105E-3</v>
       </c>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -1221,12 +1287,16 @@
       <c r="F18" s="1">
         <v>1.9999999999953388E-4</v>
       </c>
-      <c r="G18" s="12">
-        <v>3.8113568039386519E-3</v>
+      <c r="G18">
+        <v>9.7228489896394182E-3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3.0658969102796761E-4</v>
       </c>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -1243,12 +1313,16 @@
       <c r="F19" s="1">
         <v>-1.300000000000523E-3</v>
       </c>
-      <c r="G19" s="12">
-        <v>1.6007300997012065E-2</v>
+      <c r="G19">
+        <v>4.0834951522989958E-2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2.3576070254143572E-2</v>
       </c>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -1267,12 +1341,16 @@
       <c r="F20" s="1">
         <v>0.18769999999999953</v>
       </c>
-      <c r="G20" s="12">
-        <v>4.9156794146079843E-3</v>
+      <c r="G20">
+        <v>1.2539998506653022E-2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>7.2399715134536273E-3</v>
       </c>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -1291,12 +1369,16 @@
       <c r="F21" s="1">
         <v>2.1300000000003649E-2</v>
       </c>
-      <c r="G21" s="12">
-        <v>0.100964496953212</v>
+      <c r="G21">
+        <v>0.25756249222758165</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.14870377422074516</v>
       </c>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -1315,12 +1397,16 @@
       <c r="F22" s="1">
         <v>-0.4786999999999999</v>
       </c>
-      <c r="G22" s="12">
-        <v>6.6680630103440136E-2</v>
+      <c r="G22">
+        <v>0.17010364822306159</v>
+      </c>
+      <c r="H22" s="5">
+        <v>9.8209387091722014E-2</v>
       </c>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -1339,12 +1425,16 @@
       <c r="F23" s="1">
         <v>7.1999999999974307E-3</v>
       </c>
-      <c r="G23" s="12">
-        <v>0.11175786401614798</v>
+      <c r="G23">
+        <v>0.28509659187792852</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2.9436310363131256E-3</v>
       </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>61</v>
       </c>
@@ -1363,12 +1453,16 @@
       <c r="F24" s="1">
         <v>7.990000000000208E-2</v>
       </c>
-      <c r="G24" s="13">
-        <v>0.86256550212956073</v>
+      <c r="G24">
+        <v>2.2004221993101041</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3.6430729398508561E-2</v>
       </c>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>62</v>
       </c>
@@ -1387,12 +1481,16 @@
       <c r="F25" s="1">
         <v>9.9399999999995714E-2</v>
       </c>
-      <c r="G25" s="12">
-        <v>1.3061690373342988E-2</v>
+      <c r="G25">
+        <v>3.3320638707507622E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <v>4.8704938650593238E-4</v>
       </c>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -1411,12 +1509,16 @@
       <c r="F26" s="1">
         <v>6.3099999999998602E-2</v>
       </c>
-      <c r="G26" s="14">
-        <v>2.4740899275109255E-2</v>
+      <c r="G26">
+        <v>6.3114538967115441E-2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5.6036443815789066E-4</v>
       </c>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -1435,12 +1537,16 @@
       <c r="F27" s="1">
         <v>3.5699999999998511E-2</v>
       </c>
-      <c r="G27" s="12">
-        <v>2.6171036019299636E-2</v>
+      <c r="G27">
+        <v>6.6762846988009272E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1.4994897580985339E-3</v>
       </c>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
@@ -1459,12 +1565,16 @@
       <c r="F28" s="1">
         <v>2.0199999999995555E-2</v>
       </c>
-      <c r="G28" s="12">
-        <v>1.3017462610041547E-2</v>
+      <c r="G28">
+        <v>3.3207812780718229E-2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5.457847492709928E-4</v>
       </c>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
@@ -1483,12 +1593,16 @@
       <c r="F29" s="1">
         <v>0.12359999999999616</v>
       </c>
-      <c r="G29" s="12">
-        <v>1.8977963850852347E-2</v>
+      <c r="G29">
+        <v>4.8413173088909051E-2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>4.4133585611841921E-4</v>
       </c>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
@@ -1507,12 +1621,16 @@
       <c r="F30" s="1">
         <v>0.6916000000000011</v>
       </c>
-      <c r="G30" s="12">
-        <v>2.4197510432281234E-2</v>
+      <c r="G30">
+        <v>6.172834293949294E-2</v>
+      </c>
+      <c r="H30" s="5">
+        <v>8.7153053654359766E-4</v>
       </c>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -1531,12 +1649,16 @@
       <c r="F31" s="1">
         <v>7.4200000000004707E-2</v>
       </c>
-      <c r="G31" s="12">
-        <v>7.921665584142433E-2</v>
+      <c r="G31">
+        <v>0.20208330571791919</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2.7693151509111343E-3</v>
       </c>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -1555,12 +1677,16 @@
       <c r="F32" s="1">
         <v>2.2999999999981924E-3</v>
       </c>
-      <c r="G32" s="12">
-        <v>1.1814970798732208E-2</v>
+      <c r="G32">
+        <v>3.0140231629418899E-2</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1.740243512361634E-2</v>
       </c>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>70</v>
       </c>
@@ -1579,12 +1705,16 @@
       <c r="F33" s="1">
         <v>0.1104000000000056</v>
       </c>
-      <c r="G33" s="12">
-        <v>3.3814103235643052E-2</v>
+      <c r="G33">
+        <v>8.6260467437864932E-2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.2713790048026995E-3</v>
       </c>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>71</v>
       </c>
@@ -1603,12 +1733,16 @@
       <c r="F34" s="1">
         <v>3.700000000002035E-3</v>
       </c>
-      <c r="G34" s="12">
-        <v>1.8093043475329071E-2</v>
+      <c r="G34">
+        <v>4.6155723151349665E-2</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2.6661116655478004E-2</v>
       </c>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>72</v>
       </c>
@@ -1625,12 +1759,16 @@
       <c r="F35" s="1">
         <v>-0.17569999999999908</v>
       </c>
-      <c r="G35" s="12">
-        <v>3.1558881007737939E-2</v>
+      <c r="G35">
+        <v>8.0507349509535558E-2</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4.6687695959095256E-2</v>
       </c>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>73</v>
       </c>
@@ -1649,12 +1787,16 @@
       <c r="F36" s="1">
         <v>2.4799999999999045E-2</v>
       </c>
-      <c r="G36" s="12">
-        <v>1.7666126224371703E-2</v>
+      <c r="G36">
+        <v>4.506664853156047E-2</v>
+      </c>
+      <c r="H36" s="7">
+        <v>8.6337002067228194E-4</v>
       </c>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>74</v>
       </c>
@@ -1671,12 +1813,16 @@
       <c r="F37" s="1">
         <v>2.3200000000002774E-2</v>
       </c>
-      <c r="G37" s="12">
-        <v>2.4811824505340512E-2</v>
+      <c r="G37">
+        <v>6.3295470676889051E-2</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1.2115908485264195E-3</v>
       </c>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>75</v>
       </c>
@@ -1695,12 +1841,16 @@
       <c r="F38" s="1">
         <v>4.1000000000011028E-3</v>
       </c>
-      <c r="G38" s="12">
-        <v>3.5710390058171629E-2</v>
+      <c r="G38">
+        <v>9.1097933821866414E-2</v>
+      </c>
+      <c r="H38" s="7">
+        <v>2.2409520841644498E-3</v>
       </c>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>76</v>
       </c>
@@ -1717,10 +1867,14 @@
       <c r="F39" s="1">
         <v>7.9999999999813554E-4</v>
       </c>
-      <c r="G39" s="13">
-        <v>3.4741671418736707E-2</v>
+      <c r="G39">
+        <v>8.8626712802899757E-2</v>
+      </c>
+      <c r="H39" s="8">
+        <v>5.1168656494145828E-2</v>
       </c>
       <c r="I39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Lab-linked/MESAlteckWater.xlsx
+++ b/Data/Lab-linked/MESAlteckWater.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>AO-W14-1</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>Conc.Solids.ug/gMES.SD</t>
+  </si>
+  <si>
+    <t>AFP-W16-1</t>
+  </si>
+  <si>
+    <t>AO-W16-1</t>
+  </si>
+  <si>
+    <t>W16-1</t>
   </si>
 </sst>
 </file>
@@ -804,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1872,9 @@
       <c r="D39" s="8">
         <v>50.00000000002558</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
       <c r="F39" s="1">
         <v>7.9999999999813554E-4</v>
       </c>
@@ -1875,6 +1886,26 @@
       </c>
       <c r="I39" s="2"/>
       <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="7">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>5.6000000000011596E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
